--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2790854705689298</v>
+        <v>0.2790854705689441</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.528396605583751</v>
+        <v>0.5283966055835663</v>
       </c>
       <c r="E2">
-        <v>2.057419284666878</v>
+        <v>2.057419284666835</v>
       </c>
       <c r="F2">
-        <v>9.504096795519672</v>
+        <v>9.504096795519615</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.17183579670683</v>
+        <v>14.17183579670672</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2419683897565932</v>
+        <v>0.2419683897564653</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3989830122468021</v>
+        <v>0.3989830122466032</v>
       </c>
       <c r="E3">
-        <v>1.630270553098597</v>
+        <v>1.630270553098612</v>
       </c>
       <c r="F3">
-        <v>7.46412605423825</v>
+        <v>7.464126054238221</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.6880693511861</v>
+        <v>11.68806935118607</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198062558420872</v>
+        <v>0.2198062558421015</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3354227084897161</v>
+        <v>0.3354227084900856</v>
       </c>
       <c r="E4">
-        <v>1.409771981799508</v>
+        <v>1.409771981799494</v>
       </c>
       <c r="F4">
-        <v>6.422003826984934</v>
+        <v>6.422003826984962</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32624946825354</v>
+        <v>10.32624946825356</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108934312038571</v>
+        <v>0.2108934312036723</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3121310595026614</v>
+        <v>0.312131059502704</v>
       </c>
       <c r="E5">
-        <v>1.326642215804029</v>
+        <v>1.326642215803957</v>
       </c>
       <c r="F5">
-        <v>6.032282711210797</v>
+        <v>6.03228271121074</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2094197529681026</v>
+        <v>0.209419752968131</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3083937431248387</v>
+        <v>0.308393743124995</v>
       </c>
       <c r="E6">
-        <v>1.313171039569795</v>
+        <v>1.313171039569738</v>
       </c>
       <c r="F6">
-        <v>5.969323242174369</v>
+        <v>5.969323242174312</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.711857893995926</v>
+        <v>9.711857893995898</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2196856153885705</v>
+        <v>0.2196856153889541</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3350993251520435</v>
+        <v>0.3350993251516456</v>
       </c>
       <c r="E7">
-        <v>1.408627146934037</v>
+        <v>1.408627146933966</v>
       </c>
       <c r="F7">
         <v>6.416623385892905</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.31903252763456</v>
+        <v>10.31903252763442</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2661267868977717</v>
+        <v>0.2661267868977859</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4793261967321598</v>
+        <v>0.4793261967319467</v>
       </c>
       <c r="E8">
         <v>1.89831897853054</v>
       </c>
       <c r="F8">
-        <v>8.742283401355536</v>
+        <v>8.742283401355735</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.26999141627715</v>
+        <v>13.26999141627729</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E9">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F9">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E10">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F10">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E11">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F11">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E12">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F12">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E13">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F13">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E14">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F14">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E15">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F15">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E16">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F16">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E17">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F17">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E18">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F18">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E19">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F19">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E20">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F20">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E21">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F21">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E22">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F22">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E23">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F23">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E24">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F24">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3678665578270426</v>
+        <v>0.3678665578272984</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.163183563584965</v>
+        <v>1.163183563584937</v>
       </c>
       <c r="E25">
-        <v>3.977657257691789</v>
+        <v>3.977657257691888</v>
       </c>
       <c r="F25">
-        <v>18.40611371500125</v>
+        <v>18.40611371500177</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.9985075946916</v>
+        <v>22.99850759469197</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2790854705689441</v>
+        <v>0.2790854705689298</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5283966055835663</v>
+        <v>0.528396605583751</v>
       </c>
       <c r="E2">
-        <v>2.057419284666835</v>
+        <v>2.057419284666878</v>
       </c>
       <c r="F2">
-        <v>9.504096795519615</v>
+        <v>9.504096795519672</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,7 +436,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.17183579670672</v>
+        <v>14.17183579670683</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2419683897564653</v>
+        <v>0.2419683897565932</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3989830122466032</v>
+        <v>0.3989830122468021</v>
       </c>
       <c r="E3">
-        <v>1.630270553098612</v>
+        <v>1.630270553098597</v>
       </c>
       <c r="F3">
-        <v>7.464126054238221</v>
+        <v>7.46412605423825</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.68806935118607</v>
+        <v>11.6880693511861</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198062558421015</v>
+        <v>0.2198062558420872</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3354227084900856</v>
+        <v>0.3354227084897161</v>
       </c>
       <c r="E4">
-        <v>1.409771981799494</v>
+        <v>1.409771981799508</v>
       </c>
       <c r="F4">
-        <v>6.422003826984962</v>
+        <v>6.422003826984934</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32624946825356</v>
+        <v>10.32624946825354</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108934312036723</v>
+        <v>0.2108934312038571</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.312131059502704</v>
+        <v>0.3121310595026614</v>
       </c>
       <c r="E5">
-        <v>1.326642215803957</v>
+        <v>1.326642215804029</v>
       </c>
       <c r="F5">
-        <v>6.03228271121074</v>
+        <v>6.032282711210797</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.209419752968131</v>
+        <v>0.2094197529681026</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.308393743124995</v>
+        <v>0.3083937431248387</v>
       </c>
       <c r="E6">
-        <v>1.313171039569738</v>
+        <v>1.313171039569795</v>
       </c>
       <c r="F6">
-        <v>5.969323242174312</v>
+        <v>5.969323242174369</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.711857893995898</v>
+        <v>9.711857893995926</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2196856153889541</v>
+        <v>0.2196856153885705</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3350993251516456</v>
+        <v>0.3350993251520435</v>
       </c>
       <c r="E7">
-        <v>1.408627146933966</v>
+        <v>1.408627146934037</v>
       </c>
       <c r="F7">
         <v>6.416623385892905</v>
@@ -626,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.31903252763442</v>
+        <v>10.31903252763456</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2661267868977859</v>
+        <v>0.2661267868977717</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4793261967319467</v>
+        <v>0.4793261967321598</v>
       </c>
       <c r="E8">
         <v>1.89831897853054</v>
       </c>
       <c r="F8">
-        <v>8.742283401355735</v>
+        <v>8.742283401355536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.26999141627729</v>
+        <v>13.26999141627715</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E9">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F9">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E10">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F10">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E11">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F11">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E12">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F12">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E13">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F13">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E14">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F14">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E15">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F15">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E16">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F16">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E17">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F17">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E18">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F18">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E19">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F19">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E20">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F20">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E21">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F21">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E22">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F22">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E23">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F23">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E24">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F24">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3678665578272984</v>
+        <v>0.3678665578270426</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.163183563584937</v>
+        <v>1.163183563584965</v>
       </c>
       <c r="E25">
-        <v>3.977657257691888</v>
+        <v>3.977657257691789</v>
       </c>
       <c r="F25">
-        <v>18.40611371500177</v>
+        <v>18.40611371500125</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.99850759469197</v>
+        <v>22.9985075946916</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2790854705689298</v>
+        <v>0.2786088738438508</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.528396605583751</v>
+        <v>0.5082224882602588</v>
       </c>
       <c r="E2">
-        <v>2.057419284666878</v>
+        <v>2.022087809401185</v>
       </c>
       <c r="F2">
-        <v>9.504096795519672</v>
+        <v>9.279568129133281</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005804032962961651</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>14.17183579670683</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.94701255282126</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2419683897565932</v>
+        <v>0.241604087579347</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3989830122468021</v>
+        <v>0.3850176937819469</v>
       </c>
       <c r="E3">
-        <v>1.630270553098597</v>
+        <v>1.606287901893154</v>
       </c>
       <c r="F3">
-        <v>7.46412605423825</v>
+        <v>7.311759321891202</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0006191991110832792</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.6880693511861</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.51714720279901</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198062558420872</v>
+        <v>0.2194962017991884</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3354227084897161</v>
+        <v>0.3243465939152657</v>
       </c>
       <c r="E4">
-        <v>1.409771981799508</v>
+        <v>1.390471023406818</v>
       </c>
       <c r="F4">
-        <v>6.422003826984934</v>
+        <v>6.302761718726373</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0006411294208752456</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32624946825354</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.18006792061578</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108934312038571</v>
+        <v>0.2106034422562004</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3121310595026614</v>
+        <v>0.3021063369708799</v>
       </c>
       <c r="E5">
-        <v>1.326642215804029</v>
+        <v>1.308943772904342</v>
       </c>
       <c r="F5">
-        <v>6.032282711210797</v>
+        <v>5.925007530577091</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0006497874374510799</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.798198921770222</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.660955664988336</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2094197529681026</v>
+        <v>0.2091330007345107</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3083937431248387</v>
+        <v>0.2985378017296938</v>
       </c>
       <c r="E6">
-        <v>1.313171039569795</v>
+        <v>1.29572470607485</v>
       </c>
       <c r="F6">
-        <v>5.969323242174369</v>
+        <v>5.863964455162005</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0006512122164036371</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.711857893995926</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.576046014250949</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2196856153885705</v>
+        <v>0.2193758388522724</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3350993251520435</v>
+        <v>0.324037812704546</v>
       </c>
       <c r="E7">
-        <v>1.408627146934037</v>
+        <v>1.389348820669767</v>
       </c>
       <c r="F7">
-        <v>6.416623385892905</v>
+        <v>6.297547814850702</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006412471267207382</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.31903252763456</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10.17297536915564</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2661267868977717</v>
+        <v>0.2656934785816816</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4793261967321598</v>
+        <v>0.46158180498702</v>
       </c>
       <c r="E8">
-        <v>1.89831897853054</v>
+        <v>1.867627325879312</v>
       </c>
       <c r="F8">
-        <v>8.742283401355536</v>
+        <v>8.546132087643059</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005943325638027019</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.26999141627715</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.06636689046354</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E9">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F9">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E10">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F10">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E11">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F11">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E12">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F12">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E13">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F13">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E14">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F14">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E15">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F15">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E16">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F16">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E17">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F17">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E18">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F18">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E19">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F19">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E20">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F20">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E21">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F21">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E22">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F22">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E23">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F23">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E24">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F24">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3678665578270426</v>
+        <v>0.3662392297859753</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.163183563584965</v>
+        <v>1.071608782825166</v>
       </c>
       <c r="E25">
-        <v>3.977657257691789</v>
+        <v>3.752538645625862</v>
       </c>
       <c r="F25">
-        <v>18.40611371500125</v>
+        <v>17.32632445371223</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0004543250088529824</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,12 +1382,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>22.9985075946916</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>22.13008143157467</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2786088738438508</v>
+        <v>0.2827889036780107</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5082224882602588</v>
+        <v>1.179065998353906</v>
       </c>
       <c r="E2">
-        <v>2.022087809401185</v>
+        <v>3.937192330811698</v>
       </c>
       <c r="F2">
-        <v>9.279568129133281</v>
+        <v>16.44059751039606</v>
       </c>
       <c r="G2">
-        <v>0.0005804032962961651</v>
+        <v>0.0004312899206048596</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.94701255282126</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>24.52082921805857</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.241604087579347</v>
+        <v>0.2426906437505636</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3850176937819469</v>
+        <v>0.6827529147082316</v>
       </c>
       <c r="E3">
-        <v>1.606287901893154</v>
+        <v>3.04492798247324</v>
       </c>
       <c r="F3">
-        <v>7.311759321891202</v>
+        <v>10.41573288886957</v>
       </c>
       <c r="G3">
-        <v>0.0006191991110832792</v>
+        <v>0.0005232883636649976</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.51714720279901</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18.30470672597988</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2194962017991884</v>
+        <v>0.2198928623396057</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3243465939152657</v>
+        <v>0.5269861662042956</v>
       </c>
       <c r="E4">
-        <v>1.390471023406818</v>
+        <v>2.654333384949965</v>
       </c>
       <c r="F4">
-        <v>6.302761718726373</v>
+        <v>8.388681545486435</v>
       </c>
       <c r="G4">
-        <v>0.0006411294208752456</v>
+        <v>0.0005613814903334898</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.18006792061578</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.75469687366476</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2106034422562004</v>
+        <v>0.2108143096982928</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3021063369708799</v>
+        <v>0.4761096949480503</v>
       </c>
       <c r="E5">
-        <v>1.308943772904342</v>
+        <v>2.509690149201589</v>
       </c>
       <c r="F5">
-        <v>5.925007530577091</v>
+        <v>7.706747995048886</v>
       </c>
       <c r="G5">
-        <v>0.0006497874374510799</v>
+        <v>0.000575380300878119</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.660955664988336</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.82926938531156</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2091330007345107</v>
+        <v>0.2093169206683569</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2985378017296938</v>
+        <v>0.4681983476060623</v>
       </c>
       <c r="E6">
-        <v>1.29572470607485</v>
+        <v>2.486306380063226</v>
       </c>
       <c r="F6">
-        <v>5.863964455162005</v>
+        <v>7.599692788029046</v>
       </c>
       <c r="G6">
-        <v>0.0006512122164036371</v>
+        <v>0.0005776414400941196</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.576046014250949</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.68052641384978</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2193758388522724</v>
+        <v>0.2197697009460171</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.324037812704546</v>
+        <v>0.5262602507504113</v>
       </c>
       <c r="E7">
-        <v>1.389348820669767</v>
+        <v>2.652335967231096</v>
       </c>
       <c r="F7">
-        <v>6.297547814850702</v>
+        <v>8.379027593965077</v>
       </c>
       <c r="G7">
-        <v>0.0006412471267207382</v>
+        <v>0.0005615750201529889</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.17297536915564</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.74185280263549</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2656934785816816</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.46158180498702</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E8">
-        <v>1.867627325879312</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F8">
-        <v>8.546132087643059</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G8">
-        <v>0.0005943325638027019</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.06636689046354</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E9">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F9">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G9">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E10">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F10">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G10">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E11">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F11">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G11">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E12">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F12">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G12">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E13">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F13">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G13">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E14">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F14">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G14">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E15">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F15">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G15">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E16">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F16">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G16">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E17">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F17">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G17">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E18">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F18">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G18">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E19">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F19">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G19">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E20">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F20">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G20">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E21">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F21">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G21">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E22">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F22">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G22">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E23">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F23">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G23">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E24">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F24">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G24">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3662392297859753</v>
+        <v>0.2682417492757594</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.071608782825166</v>
+        <v>0.939515272408272</v>
       </c>
       <c r="E25">
-        <v>3.752538645625862</v>
+        <v>3.560390312576374</v>
       </c>
       <c r="F25">
-        <v>17.32632445371223</v>
+        <v>13.60129858651558</v>
       </c>
       <c r="G25">
-        <v>0.0004543250088529824</v>
+        <v>0.0004714557035212088</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,12 +1529,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.13008143157467</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>21.81253399052872</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2827889036780107</v>
+        <v>1.609642533397164</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.179065998353906</v>
+        <v>0.007960420020982184</v>
       </c>
       <c r="E2">
-        <v>3.937192330811698</v>
+        <v>0.4495063702541415</v>
       </c>
       <c r="F2">
-        <v>16.44059751039606</v>
+        <v>0.8972435561915262</v>
       </c>
       <c r="G2">
-        <v>0.0004312899206048596</v>
+        <v>0.0007544755158477472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.7870522689057111</v>
       </c>
       <c r="M2">
-        <v>24.52082921805857</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.458824582552282</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.70798698246341</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2426906437505636</v>
+        <v>1.414399598318369</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6827529147082316</v>
+        <v>0.007114293336712763</v>
       </c>
       <c r="E3">
-        <v>3.04492798247324</v>
+        <v>0.4256044629562084</v>
       </c>
       <c r="F3">
-        <v>10.41573288886957</v>
+        <v>0.7867819069033573</v>
       </c>
       <c r="G3">
-        <v>0.0005232883636649976</v>
+        <v>0.0007595418404039433</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.6835827133264445</v>
       </c>
       <c r="M3">
-        <v>18.30470672597988</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.409099639322918</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.379957304927046</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2198928623396057</v>
+        <v>1.295353318376698</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.5269861662042956</v>
+        <v>0.006594440933504586</v>
       </c>
       <c r="E4">
-        <v>2.654333384949965</v>
+        <v>0.4109861484492896</v>
       </c>
       <c r="F4">
-        <v>8.388681545486435</v>
+        <v>0.7203785038603314</v>
       </c>
       <c r="G4">
-        <v>0.0005613814903334898</v>
+        <v>0.0007627547980996773</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.6202273802076661</v>
       </c>
       <c r="M4">
-        <v>15.75469687366476</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.379870544905941</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.183194497778999</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2108143096982928</v>
+        <v>1.247027530482171</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4761096949480503</v>
+        <v>0.006382454889418909</v>
       </c>
       <c r="E5">
-        <v>2.509690149201589</v>
+        <v>0.4050445697252485</v>
       </c>
       <c r="F5">
-        <v>7.706747995048886</v>
+        <v>0.6936406792673324</v>
       </c>
       <c r="G5">
-        <v>0.000575380300878119</v>
+        <v>0.0007640904138358873</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.5944427152616072</v>
       </c>
       <c r="M5">
-        <v>14.82926938531156</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.368277573402096</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.10406820844085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2093169206683569</v>
+        <v>1.239013687408004</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4681983476060623</v>
+        <v>0.006347244602034507</v>
       </c>
       <c r="E6">
-        <v>2.486306380063226</v>
+        <v>0.4040589427338475</v>
       </c>
       <c r="F6">
-        <v>7.599692788029046</v>
+        <v>0.6892193513215688</v>
       </c>
       <c r="G6">
-        <v>0.0005776414400941196</v>
+        <v>0.0007643137979759973</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.5901628868502229</v>
       </c>
       <c r="M6">
-        <v>14.68052641384978</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.366371521312018</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.090989966743905</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2197697009460171</v>
+        <v>1.294700854155451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5262602507504113</v>
+        <v>0.006591582663368456</v>
       </c>
       <c r="E7">
-        <v>2.652335967231096</v>
+        <v>0.4109059540640914</v>
       </c>
       <c r="F7">
-        <v>8.379027593965077</v>
+        <v>0.7200166489056556</v>
       </c>
       <c r="G7">
-        <v>0.0005615750201529889</v>
+        <v>0.0007627727033569009</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.6198795189425397</v>
       </c>
       <c r="M7">
-        <v>15.74185280263549</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.37971292188162</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.18212324085647</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2682417492757594</v>
+        <v>1.542135356370466</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.939515272408272</v>
+        <v>0.007668704676952132</v>
       </c>
       <c r="E8">
-        <v>3.560390312576374</v>
+        <v>0.4412536402633975</v>
       </c>
       <c r="F8">
-        <v>13.60129858651558</v>
+        <v>0.8588397453294618</v>
       </c>
       <c r="G8">
-        <v>0.0004714557035212088</v>
+        <v>0.0007562015461882808</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.7513327113694572</v>
       </c>
       <c r="M8">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.44140333057409</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.59384738129225</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2682417492757594</v>
+        <v>2.035104052755287</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.939515272408272</v>
+        <v>0.009781604286285273</v>
       </c>
       <c r="E9">
-        <v>3.560390312576374</v>
+        <v>0.5011830798491417</v>
       </c>
       <c r="F9">
-        <v>13.60129858651558</v>
+        <v>1.144048155702407</v>
       </c>
       <c r="G9">
-        <v>0.0004714557035212088</v>
+        <v>0.000744097226334425</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.011048295384938</v>
       </c>
       <c r="M9">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.573168694512006</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.443606800535179</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2682417492757594</v>
+        <v>2.403738118988201</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.939515272408272</v>
+        <v>0.01133985973366336</v>
       </c>
       <c r="E10">
-        <v>3.560390312576374</v>
+        <v>0.5454266719813887</v>
       </c>
       <c r="F10">
-        <v>13.60129858651558</v>
+        <v>1.364074085085534</v>
       </c>
       <c r="G10">
-        <v>0.0004714557035212088</v>
+        <v>0.000735636795228924</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1.203878922479532</v>
       </c>
       <c r="M10">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.677247340886225</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.102027776356124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2682417492757594</v>
+        <v>2.573257507946664</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.939515272408272</v>
+        <v>0.01205153297663131</v>
       </c>
       <c r="E11">
-        <v>3.560390312576374</v>
+        <v>0.5655946440582724</v>
       </c>
       <c r="F11">
-        <v>13.60129858651558</v>
+        <v>1.467073713682069</v>
       </c>
       <c r="G11">
-        <v>0.0004714557035212088</v>
+        <v>0.0007318712607509159</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1.292246302594975</v>
       </c>
       <c r="M11">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.726340466382936</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.410987146751268</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2682417492757594</v>
+        <v>2.637749808960677</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.939515272408272</v>
+        <v>0.01232157596561123</v>
       </c>
       <c r="E12">
-        <v>3.560390312576374</v>
+        <v>0.5732373089884319</v>
       </c>
       <c r="F12">
-        <v>13.60129858651558</v>
+        <v>1.50655255326771</v>
       </c>
       <c r="G12">
-        <v>0.0004714557035212088</v>
+        <v>0.0007304563544804308</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.325820383214989</v>
       </c>
       <c r="M12">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.745196704463382</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.529524345483139</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2682417492757594</v>
+        <v>2.623846328274738</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.939515272408272</v>
+        <v>0.01226339049259195</v>
       </c>
       <c r="E13">
-        <v>3.560390312576374</v>
+        <v>0.5715910850725834</v>
       </c>
       <c r="F13">
-        <v>13.60129858651558</v>
+        <v>1.498027987281645</v>
       </c>
       <c r="G13">
-        <v>0.0004714557035212088</v>
+        <v>0.0007307606055834364</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.318584348723249</v>
       </c>
       <c r="M13">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.741123615742822</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.503923600443841</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2682417492757594</v>
+        <v>2.578557116876596</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.939515272408272</v>
+        <v>0.01207373769772246</v>
       </c>
       <c r="E14">
-        <v>3.560390312576374</v>
+        <v>0.5662233024918137</v>
       </c>
       <c r="F14">
-        <v>13.60129858651558</v>
+        <v>1.47031179553467</v>
       </c>
       <c r="G14">
-        <v>0.0004714557035212088</v>
+        <v>0.0007317546404079974</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1.295006122547221</v>
       </c>
       <c r="M14">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.727886368010331</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>4.420707278700945</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2682417492757594</v>
+        <v>2.550856236288837</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.939515272408272</v>
+        <v>0.01195764585060743</v>
       </c>
       <c r="E15">
-        <v>3.560390312576374</v>
+        <v>0.5629360859278449</v>
       </c>
       <c r="F15">
-        <v>13.60129858651558</v>
+        <v>1.453398476775291</v>
       </c>
       <c r="G15">
-        <v>0.0004714557035212088</v>
+        <v>0.00073236492128487</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1.28057883559282</v>
       </c>
       <c r="M15">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.719813225928846</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>4.369941292987676</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2682417492757594</v>
+        <v>2.392699416624055</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.939515272408272</v>
+        <v>0.01129341857718913</v>
       </c>
       <c r="E16">
-        <v>3.560390312576374</v>
+        <v>0.5441094361107304</v>
       </c>
       <c r="F16">
-        <v>13.60129858651558</v>
+        <v>1.357406092127832</v>
       </c>
       <c r="G16">
-        <v>0.0004714557035212088</v>
+        <v>0.0007358844766239876</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1.198118452669036</v>
       </c>
       <c r="M16">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.674075363576549</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>4.08204182772846</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2682417492757594</v>
+        <v>2.296167984625129</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.939515272408272</v>
+        <v>0.0108867525184948</v>
       </c>
       <c r="E17">
-        <v>3.560390312576374</v>
+        <v>0.532570099608435</v>
       </c>
       <c r="F17">
-        <v>13.60129858651558</v>
+        <v>1.299301738329703</v>
       </c>
       <c r="G17">
-        <v>0.0004714557035212088</v>
+        <v>0.0007380642658895745</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1.147709966505374</v>
       </c>
       <c r="M17">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.64647416192949</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.907968146720009</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2682417492757594</v>
+        <v>2.240815170434018</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.939515272408272</v>
+        <v>0.01065310411635778</v>
       </c>
       <c r="E18">
-        <v>3.560390312576374</v>
+        <v>0.5259368854922997</v>
       </c>
       <c r="F18">
-        <v>13.60129858651558</v>
+        <v>1.266151743220647</v>
       </c>
       <c r="G18">
-        <v>0.0004714557035212088</v>
+        <v>0.0007393259108623612</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.118776129139121</v>
       </c>
       <c r="M18">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.630762210908998</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.808722219119829</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2682417492757594</v>
+        <v>2.222101710415814</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.939515272408272</v>
+        <v>0.01057403460642803</v>
       </c>
       <c r="E19">
-        <v>3.560390312576374</v>
+        <v>0.5236916812578372</v>
       </c>
       <c r="F19">
-        <v>13.60129858651558</v>
+        <v>1.254972462849736</v>
       </c>
       <c r="G19">
-        <v>0.0004714557035212088</v>
+        <v>0.0007397544642414769</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1.108989372523439</v>
       </c>
       <c r="M19">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.625470075831615</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.775264494711394</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2682417492757594</v>
+        <v>2.306426122007394</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.939515272408272</v>
+        <v>0.01093001544138161</v>
       </c>
       <c r="E20">
-        <v>3.560390312576374</v>
+        <v>0.5337980812412297</v>
       </c>
       <c r="F20">
-        <v>13.60129858651558</v>
+        <v>1.305458696805729</v>
       </c>
       <c r="G20">
-        <v>0.0004714557035212088</v>
+        <v>0.0007378314138133318</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>1.153069721781094</v>
       </c>
       <c r="M20">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.649395330517422</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.926406580805917</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2682417492757594</v>
+        <v>2.591851236450395</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.939515272408272</v>
+        <v>0.01212942720182042</v>
       </c>
       <c r="E21">
-        <v>3.560390312576374</v>
+        <v>0.5677998038837941</v>
       </c>
       <c r="F21">
-        <v>13.60129858651558</v>
+        <v>1.478439339694503</v>
       </c>
       <c r="G21">
-        <v>0.0004714557035212088</v>
+        <v>0.0007314623770752919</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1.301928446425364</v>
       </c>
       <c r="M21">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.731767135929942</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.445106561587409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2682417492757594</v>
+        <v>2.780154888975744</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.939515272408272</v>
+        <v>0.01291658832603559</v>
       </c>
       <c r="E22">
-        <v>3.560390312576374</v>
+        <v>0.5900538525140959</v>
       </c>
       <c r="F22">
-        <v>13.60129858651558</v>
+        <v>1.594291733260931</v>
       </c>
       <c r="G22">
-        <v>0.0004714557035212088</v>
+        <v>0.000727363580718013</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1.399874459004735</v>
       </c>
       <c r="M22">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.787158265856846</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.793186681195436</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2682417492757594</v>
+        <v>2.679479645501374</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.939515272408272</v>
+        <v>0.01249611251316907</v>
       </c>
       <c r="E23">
-        <v>3.560390312576374</v>
+        <v>0.5781736170314957</v>
       </c>
       <c r="F23">
-        <v>13.60129858651558</v>
+        <v>1.53218281323602</v>
       </c>
       <c r="G23">
-        <v>0.0004714557035212088</v>
+        <v>0.0007295456849333547</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1.34753216408302</v>
       </c>
       <c r="M23">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.757447508131605</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.606513864932026</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2682417492757594</v>
+        <v>2.30178797106538</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.939515272408272</v>
+        <v>0.01091045581944883</v>
       </c>
       <c r="E24">
-        <v>3.560390312576374</v>
+        <v>0.5332429078913279</v>
       </c>
       <c r="F24">
-        <v>13.60129858651558</v>
+        <v>1.302674345932559</v>
       </c>
       <c r="G24">
-        <v>0.0004714557035212088</v>
+        <v>0.0007379366598276329</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1.150646432394808</v>
       </c>
       <c r="M24">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.648074184294643</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.918067988949872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2682417492757594</v>
+        <v>1.900742725797613</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.939515272408272</v>
+        <v>0.009209419645351602</v>
       </c>
       <c r="E25">
-        <v>3.560390312576374</v>
+        <v>0.4849305188678557</v>
       </c>
       <c r="F25">
-        <v>13.60129858651558</v>
+        <v>1.065249218399529</v>
       </c>
       <c r="G25">
-        <v>0.0004714557035212088</v>
+        <v>0.000747292424913455</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.9404987684622199</v>
       </c>
       <c r="M25">
-        <v>21.81253399052872</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.536298894955465</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.208374313037126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.609642533397164</v>
+        <v>1.133182487077875</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007960420020982184</v>
+        <v>0.003821617667359334</v>
       </c>
       <c r="E2">
-        <v>0.4495063702541415</v>
+        <v>0.4572163579868231</v>
       </c>
       <c r="F2">
-        <v>0.8972435561915262</v>
+        <v>0.5883123152546972</v>
       </c>
       <c r="G2">
-        <v>0.0007544755158477472</v>
+        <v>0.002367385553572616</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7870522689057111</v>
+        <v>0.2819174718339923</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.458824582552282</v>
+        <v>1.528244866481714</v>
       </c>
       <c r="O2">
-        <v>2.70798698246341</v>
+        <v>1.891643798385587</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.414399598318369</v>
+        <v>1.080733264138672</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007114293336712763</v>
+        <v>0.003542164420867522</v>
       </c>
       <c r="E3">
-        <v>0.4256044629562084</v>
+        <v>0.450694047850341</v>
       </c>
       <c r="F3">
-        <v>0.7867819069033573</v>
+        <v>0.5639759602625247</v>
       </c>
       <c r="G3">
-        <v>0.0007595418404039433</v>
+        <v>0.002370845333170574</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.6835827133264445</v>
+        <v>0.25086203958233</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.409099639322918</v>
+        <v>1.516155237293603</v>
       </c>
       <c r="O3">
-        <v>2.379957304927046</v>
+        <v>1.82218288172416</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.295353318376698</v>
+        <v>1.048934392246281</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006594440933504586</v>
+        <v>0.003369910341358917</v>
       </c>
       <c r="E4">
-        <v>0.4109861484492896</v>
+        <v>0.4467652083231002</v>
       </c>
       <c r="F4">
-        <v>0.7203785038603314</v>
+        <v>0.5494679630241421</v>
       </c>
       <c r="G4">
-        <v>0.0007627547980996773</v>
+        <v>0.002373085151080107</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6202273802076661</v>
+        <v>0.231796567610246</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.379870544905941</v>
+        <v>1.509375355655223</v>
       </c>
       <c r="O4">
-        <v>2.183194497778999</v>
+        <v>1.780975132319213</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.247027530482171</v>
+        <v>1.036078837332127</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006382454889418909</v>
+        <v>0.003299553105696518</v>
       </c>
       <c r="E5">
-        <v>0.4050445697252485</v>
+        <v>0.445183652310007</v>
       </c>
       <c r="F5">
-        <v>0.6936406792673324</v>
+        <v>0.5436647528447907</v>
       </c>
       <c r="G5">
-        <v>0.0007640904138358873</v>
+        <v>0.002374027029201982</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5944427152616072</v>
+        <v>0.22402827581287</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.368277573402096</v>
+        <v>1.506775157580378</v>
       </c>
       <c r="O5">
-        <v>2.10406820844085</v>
+        <v>1.764543800287385</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.239013687408004</v>
+        <v>1.033950413139706</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006347244602034507</v>
+        <v>0.003287860710742052</v>
       </c>
       <c r="E6">
-        <v>0.4040589427338475</v>
+        <v>0.4449222242094564</v>
       </c>
       <c r="F6">
-        <v>0.6892193513215688</v>
+        <v>0.5427077016224615</v>
       </c>
       <c r="G6">
-        <v>0.0007643137979759973</v>
+        <v>0.002374185189674434</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5901628868502229</v>
+        <v>0.2227384306997209</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.366371521312018</v>
+        <v>1.50635324811519</v>
       </c>
       <c r="O6">
-        <v>2.090989966743905</v>
+        <v>1.761837164653883</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.294700854155451</v>
+        <v>1.048760600590441</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006591582663368456</v>
+        <v>0.003368962128307729</v>
       </c>
       <c r="E7">
-        <v>0.4109059540640914</v>
+        <v>0.446743799512852</v>
       </c>
       <c r="F7">
-        <v>0.7200166489056556</v>
+        <v>0.5493892583993443</v>
       </c>
       <c r="G7">
-        <v>0.0007627727033569009</v>
+        <v>0.002373097735533943</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6198795189425397</v>
+        <v>0.2316917970002521</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.37971292188162</v>
+        <v>1.509339628648632</v>
       </c>
       <c r="O7">
-        <v>2.18212324085647</v>
+        <v>1.780752073066452</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.542135356370466</v>
+        <v>1.115014401325425</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007668704676952132</v>
+        <v>0.00372540437334834</v>
       </c>
       <c r="E8">
-        <v>0.4412536402633975</v>
+        <v>0.4549519502948698</v>
       </c>
       <c r="F8">
-        <v>0.8588397453294618</v>
+        <v>0.5798307006710388</v>
       </c>
       <c r="G8">
-        <v>0.0007562015461882808</v>
+        <v>0.002368554568592236</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7513327113694572</v>
+        <v>0.271209210678677</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.44140333057409</v>
+        <v>1.523943408304746</v>
       </c>
       <c r="O8">
-        <v>2.59384738129225</v>
+        <v>1.867393660337228</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.035104052755287</v>
+        <v>1.24812229360009</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009781604286285273</v>
+        <v>0.004418858695920846</v>
       </c>
       <c r="E9">
-        <v>0.5011830798491417</v>
+        <v>0.4716337546965192</v>
       </c>
       <c r="F9">
-        <v>1.144048155702407</v>
+        <v>0.6429954537188962</v>
       </c>
       <c r="G9">
-        <v>0.000744097226334425</v>
+        <v>0.002360557722332605</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.011048295384938</v>
+        <v>0.3487118283557606</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.573168694512006</v>
+        <v>1.557647785470849</v>
       </c>
       <c r="O9">
-        <v>3.443606800535179</v>
+        <v>2.048806457919682</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.403738118988201</v>
+        <v>1.347828124474404</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01133985973366336</v>
+        <v>0.004924721335630267</v>
       </c>
       <c r="E10">
-        <v>0.5454266719813887</v>
+        <v>0.4842261267059058</v>
       </c>
       <c r="F10">
-        <v>1.364074085085534</v>
+        <v>0.6915515601338171</v>
       </c>
       <c r="G10">
-        <v>0.000735636795228924</v>
+        <v>0.002355232800384826</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.203878922479532</v>
+        <v>0.4056477850750184</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.677247340886225</v>
+        <v>1.58545410036001</v>
       </c>
       <c r="O10">
-        <v>4.102027776356124</v>
+        <v>2.189220981472374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.573257507946664</v>
+        <v>1.393596344068271</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01205153297663131</v>
+        <v>0.005154016869777678</v>
       </c>
       <c r="E11">
-        <v>0.5655946440582724</v>
+        <v>0.4900234229006131</v>
       </c>
       <c r="F11">
-        <v>1.467073713682069</v>
+        <v>0.7141152644727384</v>
       </c>
       <c r="G11">
-        <v>0.0007318712607509159</v>
+        <v>0.00235292862822783</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.292246302594975</v>
+        <v>0.4315463804634305</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.726340466382936</v>
+        <v>1.598755776430892</v>
       </c>
       <c r="O11">
-        <v>4.410987146751268</v>
+        <v>2.254673081867679</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.637749808960677</v>
+        <v>1.410986047508175</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01232157596561123</v>
+        <v>0.005240721551292182</v>
       </c>
       <c r="E12">
-        <v>0.5732373089884319</v>
+        <v>0.4922282382539791</v>
       </c>
       <c r="F12">
-        <v>1.50655255326771</v>
+        <v>0.7227283944949505</v>
       </c>
       <c r="G12">
-        <v>0.0007304563544804308</v>
+        <v>0.002352072996022152</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.325820383214989</v>
+        <v>0.4413529489498274</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.745196704463382</v>
+        <v>1.603885769800542</v>
       </c>
       <c r="O12">
-        <v>4.529524345483139</v>
+        <v>2.279686548565849</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.623846328274738</v>
+        <v>1.407238286466793</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01226339049259195</v>
+        <v>0.005222053783388247</v>
       </c>
       <c r="E13">
-        <v>0.5715910850725834</v>
+        <v>0.4917529756166132</v>
       </c>
       <c r="F13">
-        <v>1.498027987281645</v>
+        <v>0.7208703390379583</v>
       </c>
       <c r="G13">
-        <v>0.0007307606055834364</v>
+        <v>0.00235225652101209</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.318584348723249</v>
+        <v>0.4392409650116065</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.741123615742822</v>
+        <v>1.60277681447937</v>
       </c>
       <c r="O13">
-        <v>4.503923600443841</v>
+        <v>2.274289279959532</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.578557116876596</v>
+        <v>1.395025842759935</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01207373769772246</v>
+        <v>0.005161152647577438</v>
       </c>
       <c r="E14">
-        <v>0.5662233024918137</v>
+        <v>0.4902046262431483</v>
       </c>
       <c r="F14">
-        <v>1.47031179553467</v>
+        <v>0.7148224918292669</v>
       </c>
       <c r="G14">
-        <v>0.0007317546404079974</v>
+        <v>0.002352857896406829</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.295006122547221</v>
+        <v>0.4323531884210752</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.727886368010331</v>
+        <v>1.599175966492055</v>
       </c>
       <c r="O14">
-        <v>4.420707278700945</v>
+        <v>2.256726373631409</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.550856236288837</v>
+        <v>1.387552930244908</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01195764585060743</v>
+        <v>0.005123832542544449</v>
       </c>
       <c r="E15">
-        <v>0.5629360859278449</v>
+        <v>0.4892574431959744</v>
       </c>
       <c r="F15">
-        <v>1.453398476775291</v>
+        <v>0.7111269752354303</v>
       </c>
       <c r="G15">
-        <v>0.00073236492128487</v>
+        <v>0.002353228455593265</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.28057883559282</v>
+        <v>0.428134127590738</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.719813225928846</v>
+        <v>1.59698242027784</v>
       </c>
       <c r="O15">
-        <v>4.369941292987676</v>
+        <v>2.245998344192685</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.392699416624055</v>
+        <v>1.344845267294943</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01129341857718913</v>
+        <v>0.00490971923175465</v>
       </c>
       <c r="E16">
-        <v>0.5441094361107304</v>
+        <v>0.4838486122511085</v>
       </c>
       <c r="F16">
-        <v>1.357406092127832</v>
+        <v>0.6900865671215826</v>
       </c>
       <c r="G16">
-        <v>0.0007358844766239876</v>
+        <v>0.002355385753981087</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.198118452669036</v>
+        <v>0.4039551793195244</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.674075363576549</v>
+        <v>1.584597857631707</v>
       </c>
       <c r="O16">
-        <v>4.08204182772846</v>
+        <v>2.1849753849217</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.296167984625129</v>
+        <v>1.318750257815566</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0108867525184948</v>
+        <v>0.004778152278120729</v>
       </c>
       <c r="E17">
-        <v>0.532570099608435</v>
+        <v>0.4805478393401401</v>
       </c>
       <c r="F17">
-        <v>1.299301738329703</v>
+        <v>0.6773009749753243</v>
       </c>
       <c r="G17">
-        <v>0.0007380642658895745</v>
+        <v>0.002356739390947493</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.147709966505374</v>
+        <v>0.3891214166295072</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.64647416192949</v>
+        <v>1.577166804211856</v>
       </c>
       <c r="O17">
-        <v>3.907968146720009</v>
+        <v>2.147944657816367</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.240815170434018</v>
+        <v>1.303779888331746</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01065310411635778</v>
+        <v>0.0047024012554715</v>
       </c>
       <c r="E18">
-        <v>0.5259368854922997</v>
+        <v>0.47865583771231</v>
       </c>
       <c r="F18">
-        <v>1.266151743220647</v>
+        <v>0.6699917530631581</v>
       </c>
       <c r="G18">
-        <v>0.0007393259108623612</v>
+        <v>0.002357529093969683</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.118776129139121</v>
+        <v>0.3805892777272106</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.630762210908998</v>
+        <v>1.572954122051158</v>
       </c>
       <c r="O18">
-        <v>3.808722219119829</v>
+        <v>2.126793896135496</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.222101710415814</v>
+        <v>1.298717868315464</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01057403460642803</v>
+        <v>0.004676740188909179</v>
       </c>
       <c r="E19">
-        <v>0.5236916812578372</v>
+        <v>0.4780163701063813</v>
       </c>
       <c r="F19">
-        <v>1.254972462849736</v>
+        <v>0.6675246433687221</v>
       </c>
       <c r="G19">
-        <v>0.0007397544642414769</v>
+        <v>0.002357798387472961</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.108989372523439</v>
+        <v>0.3777004284029033</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.625470075831615</v>
+        <v>1.571538363717735</v>
       </c>
       <c r="O19">
-        <v>3.775264494711394</v>
+        <v>2.119658044420021</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.306426122007394</v>
+        <v>1.321524108099311</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01093001544138161</v>
+        <v>0.004792165838384932</v>
       </c>
       <c r="E20">
-        <v>0.5337980812412297</v>
+        <v>0.480898540894465</v>
       </c>
       <c r="F20">
-        <v>1.305458696805729</v>
+        <v>0.6786573926144968</v>
       </c>
       <c r="G20">
-        <v>0.0007378314138133318</v>
+        <v>0.002356594143075505</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.153069721781094</v>
+        <v>0.3907005145205176</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.649395330517422</v>
+        <v>1.577951497752309</v>
       </c>
       <c r="O20">
-        <v>3.926406580805917</v>
+        <v>2.151871279642137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.591851236450395</v>
+        <v>1.398611359233655</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01212942720182042</v>
+        <v>0.00517904421608506</v>
       </c>
       <c r="E21">
-        <v>0.5677998038837941</v>
+        <v>0.4906591592946583</v>
       </c>
       <c r="F21">
-        <v>1.478439339694503</v>
+        <v>0.7165970222617091</v>
       </c>
       <c r="G21">
-        <v>0.0007314623770752919</v>
+        <v>0.002352680799536098</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.301928446425364</v>
+        <v>0.4343763166673398</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.731767135929942</v>
+        <v>1.600231107525957</v>
       </c>
       <c r="O21">
-        <v>4.445106561587409</v>
+        <v>2.261878820898175</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.780154888975744</v>
+        <v>1.449331569432957</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01291658832603559</v>
+        <v>0.005431162780702437</v>
       </c>
       <c r="E22">
-        <v>0.5900538525140959</v>
+        <v>0.4970935006786377</v>
       </c>
       <c r="F22">
-        <v>1.594291733260931</v>
+        <v>0.7417936461692136</v>
       </c>
       <c r="G22">
-        <v>0.000727363580718013</v>
+        <v>0.002350221716094762</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.399874459004735</v>
+        <v>0.4629169027246576</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.787158265856846</v>
+        <v>1.615333427962696</v>
       </c>
       <c r="O22">
-        <v>4.793186681195436</v>
+        <v>2.335105761094724</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.679479645501374</v>
+        <v>1.422230497327007</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01249611251316907</v>
+        <v>0.005296671039161538</v>
       </c>
       <c r="E23">
-        <v>0.5781736170314957</v>
+        <v>0.4936544552317272</v>
       </c>
       <c r="F23">
-        <v>1.53218281323602</v>
+        <v>0.7283089212477449</v>
       </c>
       <c r="G23">
-        <v>0.0007295456849333547</v>
+        <v>0.002351525189007423</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.34753216408302</v>
+        <v>0.4476847596115761</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.757447508131605</v>
+        <v>1.607223794733187</v>
       </c>
       <c r="O23">
-        <v>4.606513864932026</v>
+        <v>2.295900937536146</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.30178797106538</v>
+        <v>1.320269950637112</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01091045581944883</v>
+        <v>0.004785830654657985</v>
       </c>
       <c r="E24">
-        <v>0.5332429078913279</v>
+        <v>0.4807399710731772</v>
       </c>
       <c r="F24">
-        <v>1.302674345932559</v>
+        <v>0.6780440273164032</v>
       </c>
       <c r="G24">
-        <v>0.0007379366598276329</v>
+        <v>0.002356659774053503</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.150646432394808</v>
+        <v>0.3899866168304698</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.648074184294643</v>
+        <v>1.577596552303447</v>
       </c>
       <c r="O24">
-        <v>3.918067988949872</v>
+        <v>2.150095621985486</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.900742725797613</v>
+        <v>1.211775268099387</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009209419645351602</v>
+        <v>0.004231878612586115</v>
       </c>
       <c r="E25">
-        <v>0.4849305188678557</v>
+        <v>0.4670603396609181</v>
       </c>
       <c r="F25">
-        <v>1.065249218399529</v>
+        <v>0.6255327934856894</v>
       </c>
       <c r="G25">
-        <v>0.000747292424913455</v>
+        <v>0.002362624015783445</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.9404987684622199</v>
+        <v>0.3277454621778872</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.536298894955465</v>
+        <v>1.547992149410859</v>
       </c>
       <c r="O25">
-        <v>3.208374313037126</v>
+        <v>1.998485556732845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.133182487077875</v>
+        <v>1.609642533397022</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.003821617667359334</v>
+        <v>0.007960420021102976</v>
       </c>
       <c r="E2">
-        <v>0.4572163579868231</v>
+        <v>0.4495063702541415</v>
       </c>
       <c r="F2">
-        <v>0.5883123152546972</v>
+        <v>0.8972435561915404</v>
       </c>
       <c r="G2">
-        <v>0.002367385553572616</v>
+        <v>0.0007544755158805148</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2819174718339923</v>
+        <v>0.7870522689056827</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.528244866481714</v>
+        <v>1.458824582552282</v>
       </c>
       <c r="O2">
-        <v>1.891643798385587</v>
+        <v>2.707986982463382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080733264138672</v>
+        <v>1.41439959831834</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003542164420867522</v>
+        <v>0.007114293336886846</v>
       </c>
       <c r="E3">
-        <v>0.450694047850341</v>
+        <v>0.4256044629562226</v>
       </c>
       <c r="F3">
-        <v>0.5639759602625247</v>
+        <v>0.7867819069033715</v>
       </c>
       <c r="G3">
-        <v>0.002370845333170574</v>
+        <v>0.000759541840432254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.25086203958233</v>
+        <v>0.6835827133266292</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.516155237293603</v>
+        <v>1.409099639322861</v>
       </c>
       <c r="O3">
-        <v>1.82218288172416</v>
+        <v>2.379957304927046</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.048934392246281</v>
+        <v>1.295353318376527</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003369910341358917</v>
+        <v>0.006594440933678669</v>
       </c>
       <c r="E4">
-        <v>0.4467652083231002</v>
+        <v>0.4109861484492967</v>
       </c>
       <c r="F4">
-        <v>0.5494679630241421</v>
+        <v>0.7203785038603456</v>
       </c>
       <c r="G4">
-        <v>0.002373085151080107</v>
+        <v>0.0007627547981278735</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.231796567610246</v>
+        <v>0.6202273802076661</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.509375355655223</v>
+        <v>1.379870544905955</v>
       </c>
       <c r="O4">
-        <v>1.780975132319213</v>
+        <v>2.183194497779056</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.036078837332127</v>
+        <v>1.247027530482171</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003299553105696518</v>
+        <v>0.006382454889306999</v>
       </c>
       <c r="E5">
-        <v>0.445183652310007</v>
+        <v>0.4050445697252485</v>
       </c>
       <c r="F5">
-        <v>0.5436647528447907</v>
+        <v>0.6936406792673324</v>
       </c>
       <c r="G5">
-        <v>0.002374027029201982</v>
+        <v>0.0007640904138069709</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.22402827581287</v>
+        <v>0.594442715261664</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.506775157580378</v>
+        <v>1.368277573402096</v>
       </c>
       <c r="O5">
-        <v>1.764543800287385</v>
+        <v>2.104068208440907</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.033950413139706</v>
+        <v>1.239013687408033</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003287860710742052</v>
+        <v>0.006347244602205038</v>
       </c>
       <c r="E6">
-        <v>0.4449222242094564</v>
+        <v>0.4040589427338332</v>
       </c>
       <c r="F6">
-        <v>0.5427077016224615</v>
+        <v>0.6892193513215688</v>
       </c>
       <c r="G6">
-        <v>0.002374185189674434</v>
+        <v>0.0007643137979188338</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2227384306997209</v>
+        <v>0.590162886850166</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.50635324811519</v>
+        <v>1.366371521312018</v>
       </c>
       <c r="O6">
-        <v>1.761837164653883</v>
+        <v>2.090989966743848</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.048760600590441</v>
+        <v>1.294700854155479</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003368962128307729</v>
+        <v>0.00659158266364912</v>
       </c>
       <c r="E7">
-        <v>0.446743799512852</v>
+        <v>0.4109059540640558</v>
       </c>
       <c r="F7">
-        <v>0.5493892583993443</v>
+        <v>0.7200166489056414</v>
       </c>
       <c r="G7">
-        <v>0.002373097735533943</v>
+        <v>0.000762772703328327</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2316917970002521</v>
+        <v>0.6198795189425681</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.509339628648632</v>
+        <v>1.379712921881563</v>
       </c>
       <c r="O7">
-        <v>1.780752073066452</v>
+        <v>2.182123240856555</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.115014401325425</v>
+        <v>1.542135356370494</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.00372540437334834</v>
+        <v>0.007668704677129767</v>
       </c>
       <c r="E8">
-        <v>0.4549519502948698</v>
+        <v>0.4412536402633975</v>
       </c>
       <c r="F8">
-        <v>0.5798307006710388</v>
+        <v>0.858839745329476</v>
       </c>
       <c r="G8">
-        <v>0.002368554568592236</v>
+        <v>0.0007562015461567529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.271209210678677</v>
+        <v>0.7513327113694572</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.523943408304746</v>
+        <v>1.44140333057409</v>
       </c>
       <c r="O8">
-        <v>1.867393660337228</v>
+        <v>2.593847381292193</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.24812229360009</v>
+        <v>2.035104052755457</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.004418858695920846</v>
+        <v>0.009781604286430934</v>
       </c>
       <c r="E9">
-        <v>0.4716337546965192</v>
+        <v>0.5011830798491204</v>
       </c>
       <c r="F9">
-        <v>0.6429954537188962</v>
+        <v>1.144048155702407</v>
       </c>
       <c r="G9">
-        <v>0.002360557722332605</v>
+        <v>0.0007440972263344049</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3487118283557606</v>
+        <v>1.011048295384882</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.557647785470849</v>
+        <v>1.573168694512006</v>
       </c>
       <c r="O9">
-        <v>2.048806457919682</v>
+        <v>3.443606800535235</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.347828124474404</v>
+        <v>2.403738118988258</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.004924721335630267</v>
+        <v>0.01133985973351415</v>
       </c>
       <c r="E10">
-        <v>0.4842261267059058</v>
+        <v>0.5454266719813816</v>
       </c>
       <c r="F10">
-        <v>0.6915515601338171</v>
+        <v>1.36407408508552</v>
       </c>
       <c r="G10">
-        <v>0.002355232800384826</v>
+        <v>0.0007356367952294949</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4056477850750184</v>
+        <v>1.203878922479674</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.58545410036001</v>
+        <v>1.677247340886197</v>
       </c>
       <c r="O10">
-        <v>2.189220981472374</v>
+        <v>4.102027776356124</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.393596344068271</v>
+        <v>2.573257507946778</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.005154016869777678</v>
+        <v>0.01205153297682315</v>
       </c>
       <c r="E11">
-        <v>0.4900234229006131</v>
+        <v>0.5655946440582724</v>
       </c>
       <c r="F11">
-        <v>0.7141152644727384</v>
+        <v>1.467073713682041</v>
       </c>
       <c r="G11">
-        <v>0.00235292862822783</v>
+        <v>0.000731871260751249</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4315463804634305</v>
+        <v>1.292246302594947</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.598755776430892</v>
+        <v>1.726340466382879</v>
       </c>
       <c r="O11">
-        <v>2.254673081867679</v>
+        <v>4.410987146751268</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.410986047508175</v>
+        <v>2.637749808960621</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.005240721551292182</v>
+        <v>0.01232157596568939</v>
       </c>
       <c r="E12">
-        <v>0.4922282382539791</v>
+        <v>0.5732373089884533</v>
       </c>
       <c r="F12">
-        <v>0.7227283944949505</v>
+        <v>1.50655255326771</v>
       </c>
       <c r="G12">
-        <v>0.002352072996022152</v>
+        <v>0.0007304563544957888</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4413529489498274</v>
+        <v>1.325820383215103</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.603885769800542</v>
+        <v>1.745196704463382</v>
       </c>
       <c r="O12">
-        <v>2.279686548565849</v>
+        <v>4.529524345483139</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.407238286466793</v>
+        <v>2.623846328274738</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.005222053783388247</v>
+        <v>0.01226339049270209</v>
       </c>
       <c r="E13">
-        <v>0.4917529756166132</v>
+        <v>0.5715910850725905</v>
       </c>
       <c r="F13">
-        <v>0.7208703390379583</v>
+        <v>1.498027987281617</v>
       </c>
       <c r="G13">
-        <v>0.00235225652101209</v>
+        <v>0.0007307606055837579</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4392409650116065</v>
+        <v>1.318584348723192</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.60277681447937</v>
+        <v>1.741123615742765</v>
       </c>
       <c r="O13">
-        <v>2.274289279959532</v>
+        <v>4.503923600443727</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.395025842759935</v>
+        <v>2.578557116876709</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.005161152647577438</v>
+        <v>0.0120737376976443</v>
       </c>
       <c r="E14">
-        <v>0.4902046262431483</v>
+        <v>0.5662233024917995</v>
       </c>
       <c r="F14">
-        <v>0.7148224918292669</v>
+        <v>1.470311795534656</v>
       </c>
       <c r="G14">
-        <v>0.002352857896406829</v>
+        <v>0.0007317546403399986</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4323531884210752</v>
+        <v>1.295006122547278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.599175966492055</v>
+        <v>1.727886368010388</v>
       </c>
       <c r="O14">
-        <v>2.256726373631409</v>
+        <v>4.420707278701059</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.387552930244908</v>
+        <v>2.550856236288837</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.005123832542544449</v>
+        <v>0.01195764585065717</v>
       </c>
       <c r="E15">
-        <v>0.4892574431959744</v>
+        <v>0.5629360859278805</v>
       </c>
       <c r="F15">
-        <v>0.7111269752354303</v>
+        <v>1.453398476775277</v>
       </c>
       <c r="G15">
-        <v>0.002353228455593265</v>
+        <v>0.0007323649212848919</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.428134127590738</v>
+        <v>1.280578835592792</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.59698242027784</v>
+        <v>1.719813225928903</v>
       </c>
       <c r="O15">
-        <v>2.245998344192685</v>
+        <v>4.369941292987619</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.344845267294943</v>
+        <v>2.392699416623998</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.00490971923175465</v>
+        <v>0.01129341857718558</v>
       </c>
       <c r="E16">
-        <v>0.4838486122511085</v>
+        <v>0.5441094361107446</v>
       </c>
       <c r="F16">
-        <v>0.6900865671215826</v>
+        <v>1.357406092127846</v>
       </c>
       <c r="G16">
-        <v>0.002355385753981087</v>
+        <v>0.0007358844767188804</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4039551793195244</v>
+        <v>1.198118452669036</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.584597857631707</v>
+        <v>1.674075363576549</v>
       </c>
       <c r="O16">
-        <v>2.1849753849217</v>
+        <v>4.082041827728403</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.318750257815566</v>
+        <v>2.296167984624901</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.004778152278120729</v>
+        <v>0.01088675251849835</v>
       </c>
       <c r="E17">
-        <v>0.4805478393401401</v>
+        <v>0.5325700996084635</v>
       </c>
       <c r="F17">
-        <v>0.6773009749753243</v>
+        <v>1.299301738329703</v>
       </c>
       <c r="G17">
-        <v>0.002356739390947493</v>
+        <v>0.0007380642658894043</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3891214166295072</v>
+        <v>1.147709966505261</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.577166804211856</v>
+        <v>1.646474161929518</v>
       </c>
       <c r="O17">
-        <v>2.147944657816367</v>
+        <v>3.907968146720009</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.303779888331746</v>
+        <v>2.240815170434246</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0047024012554715</v>
+        <v>0.01065310411655318</v>
       </c>
       <c r="E18">
-        <v>0.47865583771231</v>
+        <v>0.5259368854923139</v>
       </c>
       <c r="F18">
-        <v>0.6699917530631581</v>
+        <v>1.266151743220632</v>
       </c>
       <c r="G18">
-        <v>0.002357529093969683</v>
+        <v>0.0007393259108728339</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3805892777272106</v>
+        <v>1.118776129139121</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.572954122051158</v>
+        <v>1.630762210908955</v>
       </c>
       <c r="O18">
-        <v>2.126793896135496</v>
+        <v>3.808722219119829</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.298717868315464</v>
+        <v>2.22210171041587</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.004676740188909179</v>
+        <v>0.01057403460638895</v>
       </c>
       <c r="E19">
-        <v>0.4780163701063813</v>
+        <v>0.5236916812578301</v>
       </c>
       <c r="F19">
-        <v>0.6675246433687221</v>
+        <v>1.254972462849722</v>
       </c>
       <c r="G19">
-        <v>0.002357798387472961</v>
+        <v>0.0007397544642406791</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3777004284029033</v>
+        <v>1.108989372523467</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.571538363717735</v>
+        <v>1.625470075831672</v>
       </c>
       <c r="O19">
-        <v>2.119658044420021</v>
+        <v>3.77526449471145</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.321524108099311</v>
+        <v>2.306426122007338</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.004792165838384932</v>
+        <v>0.01093001544138161</v>
       </c>
       <c r="E20">
-        <v>0.480898540894465</v>
+        <v>0.5337980812412155</v>
       </c>
       <c r="F20">
-        <v>0.6786573926144968</v>
+        <v>1.305458696805715</v>
       </c>
       <c r="G20">
-        <v>0.002356594143075505</v>
+        <v>0.0007378314137856378</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3907005145205176</v>
+        <v>1.15306972178098</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.577951497752309</v>
+        <v>1.649395330517422</v>
       </c>
       <c r="O20">
-        <v>2.151871279642137</v>
+        <v>3.92640658080586</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.398611359233655</v>
+        <v>2.591851236450509</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.00517904421608506</v>
+        <v>0.01212942720190213</v>
       </c>
       <c r="E21">
-        <v>0.4906591592946583</v>
+        <v>0.5677998038837728</v>
       </c>
       <c r="F21">
-        <v>0.7165970222617091</v>
+        <v>1.478439339694518</v>
       </c>
       <c r="G21">
-        <v>0.002352680799536098</v>
+        <v>0.000731462377034769</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4343763166673398</v>
+        <v>1.301928446425364</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.600231107525957</v>
+        <v>1.731767135929914</v>
       </c>
       <c r="O21">
-        <v>2.261878820898175</v>
+        <v>4.445106561587465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.449331569432957</v>
+        <v>2.780154888975744</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.005431162780702437</v>
+        <v>0.01291658832592546</v>
       </c>
       <c r="E22">
-        <v>0.4970935006786377</v>
+        <v>0.5900538525140675</v>
       </c>
       <c r="F22">
-        <v>0.7417936461692136</v>
+        <v>1.594291733260931</v>
       </c>
       <c r="G22">
-        <v>0.002350221716094762</v>
+        <v>0.0007273635807184417</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4629169027246576</v>
+        <v>1.399874459004735</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.615333427962696</v>
+        <v>1.787158265856817</v>
       </c>
       <c r="O22">
-        <v>2.335105761094724</v>
+        <v>4.79318668119538</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.422230497327007</v>
+        <v>2.67947964550126</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.005296671039161538</v>
+        <v>0.01249611251336091</v>
       </c>
       <c r="E23">
-        <v>0.4936544552317272</v>
+        <v>0.5781736170314886</v>
       </c>
       <c r="F23">
-        <v>0.7283089212477449</v>
+        <v>1.532182813236034</v>
       </c>
       <c r="G23">
-        <v>0.002351525189007423</v>
+        <v>0.0007295456850297845</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4476847596115761</v>
+        <v>1.347532164083049</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.607223794733187</v>
+        <v>1.757447508131548</v>
       </c>
       <c r="O23">
-        <v>2.295900937536146</v>
+        <v>4.60651386493214</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.320269950637112</v>
+        <v>2.30178797106538</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.004785830654657985</v>
+        <v>0.01091045581926409</v>
       </c>
       <c r="E24">
-        <v>0.4807399710731772</v>
+        <v>0.5332429078913279</v>
       </c>
       <c r="F24">
-        <v>0.6780440273164032</v>
+        <v>1.302674345932573</v>
       </c>
       <c r="G24">
-        <v>0.002356659774053503</v>
+        <v>0.0007379366598447016</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3899866168304698</v>
+        <v>1.15064643239478</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.577596552303447</v>
+        <v>1.648074184294728</v>
       </c>
       <c r="O24">
-        <v>2.150095621985486</v>
+        <v>3.918067988949872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.211775268099387</v>
+        <v>1.900742725797556</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004231878612586115</v>
+        <v>0.009209419645472394</v>
       </c>
       <c r="E25">
-        <v>0.4670603396609181</v>
+        <v>0.484930518867877</v>
       </c>
       <c r="F25">
-        <v>0.6255327934856894</v>
+        <v>1.065249218399543</v>
       </c>
       <c r="G25">
-        <v>0.002362624015783445</v>
+        <v>0.0007472924249838364</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3277454621778872</v>
+        <v>0.9404987684621062</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.547992149410859</v>
+        <v>1.536298894955465</v>
       </c>
       <c r="O25">
-        <v>1.998485556732845</v>
+        <v>3.208374313037041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.609642533397022</v>
+        <v>1.132446788466638</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.007960420021102976</v>
+        <v>0.01537947149209273</v>
       </c>
       <c r="E2">
-        <v>0.4495063702541415</v>
+        <v>0.4736143398071704</v>
       </c>
       <c r="F2">
-        <v>0.8972435561915404</v>
+        <v>2.207427461534039</v>
       </c>
       <c r="G2">
-        <v>0.0007544755158805148</v>
+        <v>2.417982271949484</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.03078012001833352</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.009528221139736726</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.189532416788438</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.191951328099776</v>
       </c>
       <c r="L2">
-        <v>0.7870522689056827</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.458824582552282</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.707986982463382</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>5.394050888189184</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.41439959831834</v>
+        <v>0.9868273476925538</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.007114293336886846</v>
+        <v>0.01304495114110793</v>
       </c>
       <c r="E3">
-        <v>0.4256044629562226</v>
+        <v>0.4273986753346861</v>
       </c>
       <c r="F3">
-        <v>0.7867819069033715</v>
+        <v>1.902931135333972</v>
       </c>
       <c r="G3">
-        <v>0.000759541840432254</v>
+        <v>2.077207917489119</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02195097997474615</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01133207236736045</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.034581060510021</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.948831137471245</v>
       </c>
       <c r="L3">
-        <v>0.6835827133266292</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.409099639322861</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.379957304927046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>4.696185067609804</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.295353318376527</v>
+        <v>0.8969913573620829</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.006594440933678669</v>
+        <v>0.01166892100654948</v>
       </c>
       <c r="E4">
-        <v>0.4109861484492967</v>
+        <v>0.3991380720290465</v>
       </c>
       <c r="F4">
-        <v>0.7203785038603456</v>
+        <v>1.720263244164002</v>
       </c>
       <c r="G4">
-        <v>0.0007627547981278735</v>
+        <v>1.872674577946526</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.01719098756469073</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.01256550027100278</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.9418880190644927</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.802624460293572</v>
       </c>
       <c r="L4">
-        <v>0.6202273802076661</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.379870544905955</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.183194497779056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>4.270178573551817</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.247027530482171</v>
+        <v>0.8595544557512937</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.006382454889306999</v>
+        <v>0.01109535099290682</v>
       </c>
       <c r="E5">
-        <v>0.4050445697252485</v>
+        <v>0.3881924237568697</v>
       </c>
       <c r="F5">
-        <v>0.6936406792673324</v>
+        <v>1.645978091838856</v>
       </c>
       <c r="G5">
-        <v>0.0007640904138069709</v>
+        <v>1.789407980540545</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.01540876699852956</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01317751009720958</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.9041722632984772</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.749874640301655</v>
       </c>
       <c r="L5">
-        <v>0.594442715261664</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.368277573402096</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2.104068208440907</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>4.101833717008347</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.239013687408033</v>
+        <v>0.8524551780587046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006347244602205038</v>
+        <v>0.01097035755433851</v>
       </c>
       <c r="E6">
-        <v>0.4040589427338332</v>
+        <v>0.387055301626944</v>
       </c>
       <c r="F6">
-        <v>0.6892193513215688</v>
+        <v>1.632750448407705</v>
       </c>
       <c r="G6">
-        <v>0.0007643137979188338</v>
+        <v>1.774506111987762</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01513405199834916</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01338557625943348</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.8973583613118592</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.748646595562192</v>
       </c>
       <c r="L6">
-        <v>0.590162886850166</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.366371521312018</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.090989966743848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>4.079695728583602</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.294700854155479</v>
+        <v>0.8940910179079822</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00659158266364912</v>
+        <v>0.01157798801493115</v>
       </c>
       <c r="E7">
-        <v>0.4109059540640558</v>
+        <v>0.400840382624601</v>
       </c>
       <c r="F7">
-        <v>0.7200166489056414</v>
+        <v>1.716679576574705</v>
       </c>
       <c r="G7">
-        <v>0.000762772703328327</v>
+        <v>1.868457264921688</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.01720451593149053</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01284365625040884</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.9397914221657402</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.822418638662413</v>
       </c>
       <c r="L7">
-        <v>0.6198795189425681</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.379712921881563</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>2.182123240856555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>4.28374198974241</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.542135356370494</v>
+        <v>1.079142950237014</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007668704677129767</v>
+        <v>0.01445108152725894</v>
       </c>
       <c r="E8">
-        <v>0.4412536402633975</v>
+        <v>0.4600703536907673</v>
       </c>
       <c r="F8">
-        <v>0.858839745329476</v>
+        <v>2.098043959372518</v>
       </c>
       <c r="G8">
-        <v>0.0007562015461567529</v>
+        <v>2.295311791106229</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0276519459716198</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01044802789500476</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.133453601020364</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2.134954283123463</v>
       </c>
       <c r="L8">
-        <v>0.7513327113694572</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.44140333057409</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>2.593847381292193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>5.173979854014846</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.035104052755457</v>
+        <v>1.443258309762371</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.009781604286430934</v>
+        <v>0.02081026563511301</v>
       </c>
       <c r="E9">
-        <v>0.5011830798491204</v>
+        <v>0.5745242468568534</v>
       </c>
       <c r="F9">
-        <v>1.144048155702407</v>
+        <v>2.892386947774611</v>
       </c>
       <c r="G9">
-        <v>0.0007440972263344049</v>
+        <v>3.184094582436131</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0542442377680139</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.00643620401333056</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.539676948525567</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.736798236255055</v>
       </c>
       <c r="L9">
-        <v>1.011048295384882</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.573168694512006</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>3.443606800535235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>6.915408193365437</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.403738118988258</v>
+        <v>1.721065669092212</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01133985973351415</v>
+        <v>0.02480035231364042</v>
       </c>
       <c r="E10">
-        <v>0.5454266719813816</v>
+        <v>0.6914376687947481</v>
       </c>
       <c r="F10">
-        <v>1.36407408508552</v>
+        <v>3.475578853015634</v>
       </c>
       <c r="G10">
-        <v>0.0007356367952294949</v>
+        <v>3.832979620216832</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.07801692380821867</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.00443924590520961</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.836218357055259</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.252205599801258</v>
       </c>
       <c r="L10">
-        <v>1.203878922479674</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.677247340886197</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>4.102027776356124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>8.136940380083871</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.573257507946778</v>
+        <v>1.96001763274927</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01205153297682315</v>
+        <v>0.01752398090376772</v>
       </c>
       <c r="E11">
-        <v>0.5655946440582724</v>
+        <v>1.075881523703572</v>
       </c>
       <c r="F11">
-        <v>1.467073713682041</v>
+        <v>3.428215139879882</v>
       </c>
       <c r="G11">
-        <v>0.000731871260751249</v>
+        <v>3.750600393489918</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.09920499441097519</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.00413479306759168</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.783542668894938</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.933349336700843</v>
       </c>
       <c r="L11">
-        <v>1.292246302594947</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.726340466382879</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>4.410987146751268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>7.961138866526937</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.637749808960621</v>
+        <v>2.114004331874412</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01232157596568939</v>
+        <v>0.01223371941453166</v>
       </c>
       <c r="E12">
-        <v>0.5732373089884533</v>
+        <v>1.463429528306037</v>
       </c>
       <c r="F12">
-        <v>1.50655255326771</v>
+        <v>3.27007028205378</v>
       </c>
       <c r="G12">
-        <v>0.0007304563544957888</v>
+        <v>3.55238315378628</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1365053275749872</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.003787574734003485</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.680007737022152</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4.394738027235832</v>
       </c>
       <c r="L12">
-        <v>1.325820383215103</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.745196704463382</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>4.529524345483139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>7.530637388782196</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.623846328274738</v>
+        <v>2.205915132254972</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01226339049270209</v>
+        <v>0.008059042746594969</v>
       </c>
       <c r="E13">
-        <v>0.5715910850725905</v>
+        <v>1.872891244263386</v>
       </c>
       <c r="F13">
-        <v>1.498027987281617</v>
+        <v>3.013264006015334</v>
       </c>
       <c r="G13">
-        <v>0.0007307606055837579</v>
+        <v>3.248818774114</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1876829998963672</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003714891715535629</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.528875403471545</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>4.740525267660132</v>
       </c>
       <c r="L13">
-        <v>1.318584348723192</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.741123615742765</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>4.503923600443727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>6.910701099737707</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.578557116876709</v>
+        <v>2.241223652175393</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.0120737376976443</v>
+        <v>0.005879963295958746</v>
       </c>
       <c r="E14">
-        <v>0.5662233024917995</v>
+        <v>2.178592276328374</v>
       </c>
       <c r="F14">
-        <v>1.470311795534656</v>
+        <v>2.791333004183656</v>
       </c>
       <c r="G14">
-        <v>0.0007317546403399986</v>
+        <v>2.991893237444572</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2326892975488306</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003861268903537329</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.403007351283037</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>4.938538062375756</v>
       </c>
       <c r="L14">
-        <v>1.295006122547278</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.727886368010388</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>4.420707278701059</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>6.401624820583265</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.550856236288837</v>
+        <v>2.234228082450954</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01195764585065717</v>
+        <v>0.005380965968903695</v>
       </c>
       <c r="E15">
-        <v>0.5629360859278805</v>
+        <v>2.246704086984778</v>
       </c>
       <c r="F15">
-        <v>1.453398476775277</v>
+        <v>2.715692082258869</v>
       </c>
       <c r="G15">
-        <v>0.0007323649212848919</v>
+        <v>2.905927887106941</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2432654654622581</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004077020159558131</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.361793938745365</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.967901108541156</v>
       </c>
       <c r="L15">
-        <v>1.280578835592792</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.719813225928903</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.369941292987619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>6.244186579791005</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.392699416623998</v>
+        <v>2.089492717932103</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01129341857718558</v>
+        <v>0.004613009583842143</v>
       </c>
       <c r="E16">
-        <v>0.5441094361107446</v>
+        <v>2.100545803826293</v>
       </c>
       <c r="F16">
-        <v>1.357406092127846</v>
+        <v>2.517380917388166</v>
       </c>
       <c r="G16">
-        <v>0.0007358844767188804</v>
+        <v>2.689929427121712</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2208536837719208</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.004928342641496108</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.265384851293589</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>4.670969814484749</v>
       </c>
       <c r="L16">
-        <v>1.198118452669036</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.674075363576549</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>4.082041827728403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>5.877784602973918</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.296167984624901</v>
+        <v>1.960313775531517</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01088675251849835</v>
+        <v>0.005030774316082898</v>
       </c>
       <c r="E17">
-        <v>0.5325700996084635</v>
+        <v>1.821525327556557</v>
       </c>
       <c r="F17">
-        <v>1.299301738329703</v>
+        <v>2.482984577734697</v>
       </c>
       <c r="G17">
-        <v>0.0007380642658894043</v>
+        <v>2.660098504755979</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1780822315636357</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005575613849601702</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.258081925442383</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>4.340484164189633</v>
       </c>
       <c r="L17">
-        <v>1.147709966505261</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.646474161929518</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.907968146720009</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>5.863319647984753</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.240815170434246</v>
+        <v>1.83459503282117</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01065310411655318</v>
+        <v>0.007285026692947838</v>
       </c>
       <c r="E18">
-        <v>0.5259368854923139</v>
+        <v>1.433323264311298</v>
       </c>
       <c r="F18">
-        <v>1.266151743220632</v>
+        <v>2.587688650493789</v>
       </c>
       <c r="G18">
-        <v>0.0007393259108728339</v>
+        <v>2.79063690626603</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1241031453767221</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005771268415119657</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.328163702438019</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>3.933298747931076</v>
       </c>
       <c r="L18">
-        <v>1.118776129139121</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.630762210908955</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>3.808722219119829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>6.140822230450937</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.22210171041587</v>
+        <v>1.71892264641545</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01057403460638895</v>
+        <v>0.01197723047243926</v>
       </c>
       <c r="E19">
-        <v>0.5236916812578301</v>
+        <v>1.051319760888433</v>
       </c>
       <c r="F19">
-        <v>1.254972462849722</v>
+        <v>2.797946028815659</v>
       </c>
       <c r="G19">
-        <v>0.0007397544642406791</v>
+        <v>3.043885411510217</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.08209159066666416</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006099865326678611</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.456387509281257</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.557992301786101</v>
       </c>
       <c r="L19">
-        <v>1.108989372523467</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.625470075831672</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>3.77526449471145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>6.672108087492091</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.306426122007338</v>
+        <v>1.641184939226434</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01093001544138161</v>
+        <v>0.02340857246686312</v>
       </c>
       <c r="E20">
-        <v>0.5337980812412155</v>
+        <v>0.6673931729276248</v>
       </c>
       <c r="F20">
-        <v>1.305458696805715</v>
+        <v>3.309933584531592</v>
       </c>
       <c r="G20">
-        <v>0.0007378314137856378</v>
+        <v>3.647824795816433</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.07156066574983644</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.005727132420548564</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.750897463272395</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3.184834966358082</v>
       </c>
       <c r="L20">
-        <v>1.15306972178098</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.649395330517422</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>3.92640658080586</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>7.861788371893283</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.591851236450509</v>
+        <v>1.835911048044181</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01212942720190213</v>
+        <v>0.02859694322815898</v>
       </c>
       <c r="E21">
-        <v>0.5677998038837728</v>
+        <v>0.7106566162322423</v>
       </c>
       <c r="F21">
-        <v>1.478439339694518</v>
+        <v>3.832728995267672</v>
       </c>
       <c r="G21">
-        <v>0.000731462377034769</v>
+        <v>4.235303859343219</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.09361879970220421</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.004322038548020934</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2.022797262155677</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.505541919282763</v>
       </c>
       <c r="L21">
-        <v>1.301928446425364</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.731767135929914</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>4.445106561587465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>8.933555958126078</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.780154888975744</v>
+        <v>1.972688438166585</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01291658832592546</v>
+        <v>0.03167281432320124</v>
       </c>
       <c r="E22">
-        <v>0.5900538525140675</v>
+        <v>0.7529064873944478</v>
       </c>
       <c r="F22">
-        <v>1.594291733260931</v>
+        <v>4.170642491844347</v>
       </c>
       <c r="G22">
-        <v>0.0007273635807184417</v>
+        <v>4.613684807817748</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.108872642241348</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.003271014667077132</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2.197693548303874</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.713668722179818</v>
       </c>
       <c r="L22">
-        <v>1.399874459004735</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.787158265856817</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>4.79318668119538</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>9.574774242502428</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.67947964550126</v>
+        <v>1.902498810005284</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01249611251336091</v>
+        <v>0.03010926193625352</v>
       </c>
       <c r="E23">
-        <v>0.5781736170314886</v>
+        <v>0.7282275935065243</v>
       </c>
       <c r="F23">
-        <v>1.532182813236034</v>
+        <v>3.992078008884192</v>
       </c>
       <c r="G23">
-        <v>0.0007295456850297845</v>
+        <v>4.41397542112017</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.1004605700423982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.003497168415624863</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2.105518412634439</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.576442759160983</v>
       </c>
       <c r="L23">
-        <v>1.347532164083049</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.757447508131548</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>4.60651386493214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>9.212522954859196</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.30178797106538</v>
+        <v>1.632240105224525</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01091045581926409</v>
+        <v>0.02440479765636638</v>
       </c>
       <c r="E24">
-        <v>0.5332429078913279</v>
+        <v>0.6397394263452512</v>
       </c>
       <c r="F24">
-        <v>1.302674345932573</v>
+        <v>3.335298035130791</v>
       </c>
       <c r="G24">
-        <v>0.0007379366598447016</v>
+        <v>3.679173477726778</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.07190594524494465</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.00523914734849118</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.766828068451844</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>3.105568601618131</v>
       </c>
       <c r="L24">
-        <v>1.15064643239478</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.648074184294728</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>3.918067988949872</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>7.884178343803995</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.900742725797556</v>
+        <v>1.340694450951673</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.009209419645472394</v>
+        <v>0.01886021826174655</v>
       </c>
       <c r="E25">
-        <v>0.484930518867877</v>
+        <v>0.5465478998550353</v>
       </c>
       <c r="F25">
-        <v>1.065249218399543</v>
+        <v>2.667200573889914</v>
       </c>
       <c r="G25">
-        <v>0.0007472924249838364</v>
+        <v>2.931806973399262</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.04636523746694943</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.007846932562974196</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.423778366511414</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.609242483117839</v>
       </c>
       <c r="L25">
-        <v>0.9404987684621062</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.536298894955465</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>3.208374313037041</v>
+        <v>6.470209560993482</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_56/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.132446788466638</v>
+        <v>1.312278565998497</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01537947149209273</v>
+        <v>0.02140124381069697</v>
       </c>
       <c r="E2">
-        <v>0.4736143398071704</v>
+        <v>0.3378198568238062</v>
       </c>
       <c r="F2">
-        <v>2.207427461534039</v>
+        <v>2.365943828046127</v>
       </c>
       <c r="G2">
-        <v>2.417982271949484</v>
+        <v>2.637659831572847</v>
       </c>
       <c r="H2">
-        <v>0.03078012001833352</v>
+        <v>0.02480104259952931</v>
       </c>
       <c r="I2">
-        <v>0.009528221139736726</v>
+        <v>0.005994465925693859</v>
       </c>
       <c r="J2">
-        <v>1.189532416788438</v>
+        <v>1.339848858804089</v>
       </c>
       <c r="K2">
-        <v>2.191951328099776</v>
+        <v>0.9976819314011038</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3397645863243994</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.4102416770434587</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.394050888189184</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>4.331596681600075</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9868273476925538</v>
+        <v>1.147764528550624</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01304495114110793</v>
+        <v>0.01863519351482879</v>
       </c>
       <c r="E3">
-        <v>0.4273986753346861</v>
+        <v>0.3059068844826633</v>
       </c>
       <c r="F3">
-        <v>1.902931135333972</v>
+        <v>2.051234205303643</v>
       </c>
       <c r="G3">
-        <v>2.077207917489119</v>
+        <v>2.271697769563701</v>
       </c>
       <c r="H3">
-        <v>0.02195097997474615</v>
+        <v>0.01754417623894555</v>
       </c>
       <c r="I3">
-        <v>0.01133207236736045</v>
+        <v>0.00704643133600813</v>
       </c>
       <c r="J3">
-        <v>1.034581060510021</v>
+        <v>1.183175693324529</v>
       </c>
       <c r="K3">
-        <v>1.948831137471245</v>
+        <v>0.8910874830304678</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2907224075141102</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3813539948895581</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.696185067609804</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>3.754687006201081</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8969913573620829</v>
+        <v>1.046154773956459</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01166892100654948</v>
+        <v>0.01696717726913377</v>
       </c>
       <c r="E4">
-        <v>0.3991380720290465</v>
+        <v>0.2864903310398326</v>
       </c>
       <c r="F4">
-        <v>1.720263244164002</v>
+        <v>1.861487922409268</v>
       </c>
       <c r="G4">
-        <v>1.872674577946526</v>
+        <v>2.051559952965249</v>
       </c>
       <c r="H4">
-        <v>0.01719098756469073</v>
+        <v>0.01363846252668149</v>
       </c>
       <c r="I4">
-        <v>0.01256550027100278</v>
+        <v>0.007784190026652205</v>
       </c>
       <c r="J4">
-        <v>0.9418880190644927</v>
+        <v>1.088179363615893</v>
       </c>
       <c r="K4">
-        <v>1.802624460293572</v>
+        <v>0.8277451864804064</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2623165498053481</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3639992493320392</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.270178573551817</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>3.402718923527559</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8595544557512937</v>
+        <v>1.004034110520962</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01109535099290682</v>
+        <v>0.01627113692410376</v>
       </c>
       <c r="E5">
-        <v>0.3881924237568697</v>
+        <v>0.2788371891471826</v>
       </c>
       <c r="F5">
-        <v>1.645978091838856</v>
+        <v>1.784326935561879</v>
       </c>
       <c r="G5">
-        <v>1.789407980540545</v>
+        <v>1.962125622691644</v>
       </c>
       <c r="H5">
-        <v>0.01540876699852956</v>
+        <v>0.01217503209318019</v>
       </c>
       <c r="I5">
-        <v>0.01317751009720958</v>
+        <v>0.008200377853172292</v>
       </c>
       <c r="J5">
-        <v>0.9041722632984772</v>
+        <v>1.049355099249283</v>
       </c>
       <c r="K5">
-        <v>1.749874640301655</v>
+        <v>0.8051224669843933</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2519730805624221</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3582075048199727</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.101833717008347</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>3.262808186419065</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8524551780587046</v>
+        <v>0.9963446837336676</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01097035755433851</v>
+        <v>0.01612855099619281</v>
       </c>
       <c r="E6">
-        <v>0.387055301626944</v>
+        <v>0.2778468286831561</v>
       </c>
       <c r="F6">
-        <v>1.632750448407705</v>
+        <v>1.770839758399035</v>
       </c>
       <c r="G6">
-        <v>1.774506111987762</v>
+        <v>1.946470140549593</v>
       </c>
       <c r="H6">
-        <v>0.01513405199834916</v>
+        <v>0.01194540690553891</v>
       </c>
       <c r="I6">
-        <v>0.01338557625943348</v>
+        <v>0.008394085445232236</v>
       </c>
       <c r="J6">
-        <v>0.8973583613118592</v>
+        <v>1.042473107312816</v>
       </c>
       <c r="K6">
-        <v>1.748646595562192</v>
+        <v>0.8046833860109146</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2512753223856379</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3587123168031638</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.079695728583602</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>3.243302082441005</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8940910179079822</v>
+        <v>1.044266343278281</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01157798801493115</v>
+        <v>0.01668311648240106</v>
       </c>
       <c r="E7">
-        <v>0.400840382624601</v>
+        <v>0.2867433773645693</v>
       </c>
       <c r="F7">
-        <v>1.716679576574705</v>
+        <v>1.853135938458635</v>
       </c>
       <c r="G7">
-        <v>1.868457264921688</v>
+        <v>2.052664716716976</v>
       </c>
       <c r="H7">
-        <v>0.01720451593149053</v>
+        <v>0.01361651545327619</v>
       </c>
       <c r="I7">
-        <v>0.01284365625040884</v>
+        <v>0.008108877773637779</v>
       </c>
       <c r="J7">
-        <v>0.9397914221657402</v>
+        <v>1.071436691022654</v>
       </c>
       <c r="K7">
-        <v>1.822418638662413</v>
+        <v>0.8370912360104867</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2651521747595353</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3681563471556828</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.28374198974241</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>3.407905378094483</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.079142950237014</v>
+        <v>1.255048537326729</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01445108152725894</v>
+        <v>0.0196731745368659</v>
       </c>
       <c r="E8">
-        <v>0.4600703536907673</v>
+        <v>0.3264315143306504</v>
       </c>
       <c r="F8">
-        <v>2.098043959372518</v>
+        <v>2.236028593663846</v>
       </c>
       <c r="G8">
-        <v>2.295311791106229</v>
+        <v>2.522959931408877</v>
       </c>
       <c r="H8">
-        <v>0.0276519459716198</v>
+        <v>0.0221231140640048</v>
       </c>
       <c r="I8">
-        <v>0.01044802789500476</v>
+        <v>0.006726420604856287</v>
       </c>
       <c r="J8">
-        <v>1.133453601020364</v>
+        <v>1.233851475030889</v>
       </c>
       <c r="K8">
-        <v>2.134954283123463</v>
+        <v>0.9748731233154615</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3271919806349217</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.4062582663875745</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.173979854014846</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>4.135381945631792</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.443258309762371</v>
+        <v>1.665181737245632</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02081026563511301</v>
+        <v>0.02670769806130835</v>
       </c>
       <c r="E9">
-        <v>0.5745242468568534</v>
+        <v>0.4064213941962365</v>
       </c>
       <c r="F9">
-        <v>2.892386947774611</v>
+        <v>3.043826947966693</v>
       </c>
       <c r="G9">
-        <v>3.184094582436131</v>
+        <v>3.477290485983303</v>
       </c>
       <c r="H9">
-        <v>0.0542442377680139</v>
+        <v>0.04393882889798562</v>
       </c>
       <c r="I9">
-        <v>0.00643620401333056</v>
+        <v>0.004308912434624723</v>
       </c>
       <c r="J9">
-        <v>1.539676948525567</v>
+        <v>1.62016685039552</v>
       </c>
       <c r="K9">
-        <v>2.736798236255055</v>
+        <v>1.243443475066911</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4563249640518592</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4763680410669693</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.915408193365437</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>5.575907179268881</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.721065669092212</v>
+        <v>1.982097595764969</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02480035231364042</v>
+        <v>0.02968525931996169</v>
       </c>
       <c r="E10">
-        <v>0.6914376687947481</v>
+        <v>0.4840706636531209</v>
       </c>
       <c r="F10">
-        <v>3.475578853015634</v>
+        <v>3.598466647289115</v>
       </c>
       <c r="G10">
-        <v>3.832979620216832</v>
+        <v>4.20186460103983</v>
       </c>
       <c r="H10">
-        <v>0.07801692380821867</v>
+        <v>0.06303251442298574</v>
       </c>
       <c r="I10">
-        <v>0.00443924590520961</v>
+        <v>0.003270538928045852</v>
       </c>
       <c r="J10">
-        <v>1.836218357055259</v>
+        <v>1.804007028027286</v>
       </c>
       <c r="K10">
-        <v>3.252205599801258</v>
+        <v>1.479571279754012</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5696934689865145</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.5408800022666966</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.136940380083871</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>6.549826546004425</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.96001763274927</v>
+        <v>2.27070364011638</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01752398090376772</v>
+        <v>0.01940074856087648</v>
       </c>
       <c r="E11">
-        <v>1.075881523703572</v>
+        <v>0.7348071799176097</v>
       </c>
       <c r="F11">
-        <v>3.428215139879882</v>
+        <v>3.492104472172542</v>
       </c>
       <c r="G11">
-        <v>3.750600393489918</v>
+        <v>4.202563965929158</v>
       </c>
       <c r="H11">
-        <v>0.09920499441097519</v>
+        <v>0.08185300060014455</v>
       </c>
       <c r="I11">
-        <v>0.00413479306759168</v>
+        <v>0.003477507732582374</v>
       </c>
       <c r="J11">
-        <v>1.783542668894938</v>
+        <v>1.568226655792614</v>
       </c>
       <c r="K11">
-        <v>3.933349336700843</v>
+        <v>1.785258605207346</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.694681930246702</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.6456128141093842</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>7.961138866526937</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.218464474029446</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.114004331874412</v>
+        <v>2.457199856482532</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01223371941453166</v>
+        <v>0.01260967909062316</v>
       </c>
       <c r="E12">
-        <v>1.463429528306037</v>
+        <v>1.006211593900204</v>
       </c>
       <c r="F12">
-        <v>3.27007028205378</v>
+        <v>3.310497003942828</v>
       </c>
       <c r="G12">
-        <v>3.55238315378628</v>
+        <v>4.036612742099265</v>
       </c>
       <c r="H12">
-        <v>0.1365053275749872</v>
+        <v>0.1182336758133857</v>
       </c>
       <c r="I12">
-        <v>0.003787574734003485</v>
+        <v>0.003297684069794471</v>
       </c>
       <c r="J12">
-        <v>1.680007737022152</v>
+        <v>1.394625850995055</v>
       </c>
       <c r="K12">
-        <v>4.394738027235832</v>
+        <v>1.987646612233277</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.774148206808789</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7180315748528585</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>7.530637388782196</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>5.739496937139847</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.205915132254972</v>
+        <v>2.569112368991341</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.008059042746594969</v>
+        <v>0.007843677765247747</v>
       </c>
       <c r="E13">
-        <v>1.872891244263386</v>
+        <v>1.309597675821351</v>
       </c>
       <c r="F13">
-        <v>3.013264006015334</v>
+        <v>3.068994205432858</v>
       </c>
       <c r="G13">
-        <v>3.248818774114</v>
+        <v>3.718948940736652</v>
       </c>
       <c r="H13">
-        <v>0.1876829998963672</v>
+        <v>0.1696592494109979</v>
       </c>
       <c r="I13">
-        <v>0.003714891715535629</v>
+        <v>0.003253637293706646</v>
       </c>
       <c r="J13">
-        <v>1.528875403471545</v>
+        <v>1.280437497591436</v>
       </c>
       <c r="K13">
-        <v>4.740525267660132</v>
+        <v>2.131322450137091</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.8252720952542347</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.7742842081737393</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.910701099737707</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>5.147525240431662</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.241223652175393</v>
+        <v>2.612930032540987</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.005879963295958746</v>
+        <v>0.005353880223793794</v>
       </c>
       <c r="E14">
-        <v>2.178592276328374</v>
+        <v>1.545196685129739</v>
       </c>
       <c r="F14">
-        <v>2.791333004183656</v>
+        <v>2.872857984117957</v>
       </c>
       <c r="G14">
-        <v>2.991893237444572</v>
+        <v>3.433148283104146</v>
       </c>
       <c r="H14">
-        <v>0.2326892975488306</v>
+        <v>0.2153049508781208</v>
       </c>
       <c r="I14">
-        <v>0.003861268903537329</v>
+        <v>0.003380569371318032</v>
       </c>
       <c r="J14">
-        <v>1.403007351283037</v>
+        <v>1.222266883984616</v>
       </c>
       <c r="K14">
-        <v>4.938538062375756</v>
+        <v>2.208670666054701</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.8491423273000009</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.8079397513200206</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.401624820583265</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>4.690002217966338</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.234228082450954</v>
+        <v>2.605422852851007</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.005380965968903695</v>
+        <v>0.004857442010445467</v>
       </c>
       <c r="E15">
-        <v>2.246704086984778</v>
+        <v>1.599928860181606</v>
       </c>
       <c r="F15">
-        <v>2.715692082258869</v>
+        <v>2.810194480681787</v>
       </c>
       <c r="G15">
-        <v>2.905927887106941</v>
+        <v>3.332431370672509</v>
       </c>
       <c r="H15">
-        <v>0.2432654654622581</v>
+        <v>0.2262875851748731</v>
       </c>
       <c r="I15">
-        <v>0.004077020159558131</v>
+        <v>0.00358708251883666</v>
       </c>
       <c r="J15">
-        <v>1.361793938745365</v>
+        <v>1.215735231834515</v>
       </c>
       <c r="K15">
-        <v>4.967901108541156</v>
+        <v>2.217881756225594</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.8498338674031771</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.8139357790780082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.244186579791005</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>4.556859306359897</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.089492717932103</v>
+        <v>2.434014222772362</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.004613009583842143</v>
+        <v>0.005215580240527373</v>
       </c>
       <c r="E16">
-        <v>2.100545803826293</v>
+        <v>1.503724080924613</v>
       </c>
       <c r="F16">
-        <v>2.517380917388166</v>
+        <v>2.666843735478437</v>
       </c>
       <c r="G16">
-        <v>2.689929427121712</v>
+        <v>3.049386353081815</v>
       </c>
       <c r="H16">
-        <v>0.2208536837719208</v>
+        <v>0.2064671954929196</v>
       </c>
       <c r="I16">
-        <v>0.004928342641496108</v>
+        <v>0.004148739487909836</v>
       </c>
       <c r="J16">
-        <v>1.265384851293589</v>
+        <v>1.274899350600663</v>
       </c>
       <c r="K16">
-        <v>4.670969814484749</v>
+        <v>2.075465280169325</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.7832601341734033</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.7729286071703712</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.877784602973918</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>4.312062324907572</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.960313775531517</v>
+        <v>2.280980692238529</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005030774316082898</v>
+        <v>0.006834419919961476</v>
       </c>
       <c r="E17">
-        <v>1.821525327556557</v>
+        <v>1.297688959000965</v>
       </c>
       <c r="F17">
-        <v>2.482984577734697</v>
+        <v>2.654200066491654</v>
       </c>
       <c r="G17">
-        <v>2.660098504755979</v>
+        <v>2.989117852806203</v>
       </c>
       <c r="H17">
-        <v>0.1780822315636357</v>
+        <v>0.1651996404049072</v>
       </c>
       <c r="I17">
-        <v>0.005575613849601702</v>
+        <v>0.0045614969184129</v>
       </c>
       <c r="J17">
-        <v>1.258081925442383</v>
+        <v>1.335457433603921</v>
       </c>
       <c r="K17">
-        <v>4.340484164189633</v>
+        <v>1.928384625283101</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.7213910900353824</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.7242678306410113</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.863319647984753</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>4.359391455930137</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.83459503282117</v>
+        <v>2.129739135852844</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.007285026692947838</v>
+        <v>0.01060099454925734</v>
       </c>
       <c r="E18">
-        <v>1.433323264311298</v>
+        <v>1.008759271595025</v>
       </c>
       <c r="F18">
-        <v>2.587688650493789</v>
+        <v>2.765998788681401</v>
       </c>
       <c r="G18">
-        <v>2.79063690626603</v>
+        <v>3.10551400836016</v>
       </c>
       <c r="H18">
-        <v>0.1241031453767221</v>
+        <v>0.1120641173492061</v>
       </c>
       <c r="I18">
-        <v>0.005771268415119657</v>
+        <v>0.004508772887252377</v>
       </c>
       <c r="J18">
-        <v>1.328163702438019</v>
+        <v>1.434248640002579</v>
       </c>
       <c r="K18">
-        <v>3.933298747931076</v>
+        <v>1.753256908961802</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.6538103811238756</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.6606158561694144</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.140822230450937</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>4.669364618274415</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.71892264641545</v>
+        <v>1.990306592588752</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01197723047243926</v>
+        <v>0.01679658067881107</v>
       </c>
       <c r="E19">
-        <v>1.051319760888433</v>
+        <v>0.729963029462894</v>
       </c>
       <c r="F19">
-        <v>2.797946028815659</v>
+        <v>2.975583980506258</v>
       </c>
       <c r="G19">
-        <v>3.043885411510217</v>
+        <v>3.354807266203238</v>
       </c>
       <c r="H19">
-        <v>0.08209159066666416</v>
+        <v>0.07016071693051629</v>
       </c>
       <c r="I19">
-        <v>0.006099865326678611</v>
+        <v>0.004742459688826806</v>
       </c>
       <c r="J19">
-        <v>1.456387509281257</v>
+        <v>1.569044959027622</v>
       </c>
       <c r="K19">
-        <v>3.557992301786101</v>
+        <v>1.595881084186402</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5961465309075464</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.6005106408546226</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.672108087492091</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>5.204154740928999</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.641184939226434</v>
+        <v>1.891775041096025</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02340857246686312</v>
+        <v>0.02932547227113247</v>
       </c>
       <c r="E20">
-        <v>0.6673931729276248</v>
+        <v>0.4681559730757883</v>
       </c>
       <c r="F20">
-        <v>3.309933584531592</v>
+        <v>3.463102533287042</v>
       </c>
       <c r="G20">
-        <v>3.647824795816433</v>
+        <v>3.981874594299512</v>
       </c>
       <c r="H20">
-        <v>0.07156066574983644</v>
+        <v>0.05791218363105788</v>
       </c>
       <c r="I20">
-        <v>0.005727132420548564</v>
+        <v>0.004503334868964259</v>
       </c>
       <c r="J20">
-        <v>1.750897463272395</v>
+        <v>1.805084168041418</v>
       </c>
       <c r="K20">
-        <v>3.184834966358082</v>
+        <v>1.446184542532578</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5498144610493867</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.5352797159303719</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>7.861788371893283</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>6.333338191686664</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.835911048044181</v>
+        <v>2.122333192412952</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02859694322815898</v>
+        <v>0.02999007271259302</v>
       </c>
       <c r="E21">
-        <v>0.7106566162322423</v>
+        <v>0.4918739583228984</v>
       </c>
       <c r="F21">
-        <v>3.832728995267672</v>
+        <v>3.850766929591231</v>
       </c>
       <c r="G21">
-        <v>4.235303859343219</v>
+        <v>4.719269227113159</v>
       </c>
       <c r="H21">
-        <v>0.09361879970220421</v>
+        <v>0.07498660157466741</v>
       </c>
       <c r="I21">
-        <v>0.004322038548020934</v>
+        <v>0.003695277147395259</v>
       </c>
       <c r="J21">
-        <v>2.022797262155677</v>
+        <v>1.70179829748534</v>
       </c>
       <c r="K21">
-        <v>3.505541919282763</v>
+        <v>1.609739123655118</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6322398863280227</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.576955501197574</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.933555958126078</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>7.155336378482048</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.972688438166585</v>
+        <v>2.284112504225959</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03167281432320124</v>
+        <v>0.02972887489548981</v>
       </c>
       <c r="E22">
-        <v>0.7529064873944478</v>
+        <v>0.5164505788581408</v>
       </c>
       <c r="F22">
-        <v>4.170642491844347</v>
+        <v>4.08707162958882</v>
       </c>
       <c r="G22">
-        <v>4.613684807817748</v>
+        <v>5.20494531352881</v>
       </c>
       <c r="H22">
-        <v>0.108872642241348</v>
+        <v>0.08660559985817695</v>
       </c>
       <c r="I22">
-        <v>0.003271014667077132</v>
+        <v>0.002897280361383814</v>
       </c>
       <c r="J22">
-        <v>2.197693548303874</v>
+        <v>1.614367123605319</v>
       </c>
       <c r="K22">
-        <v>3.713668722179818</v>
+        <v>1.716700284607583</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6869111260846523</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.6038953947126657</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>9.574774242502428</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>7.6324088368915</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.902498810005284</v>
+        <v>2.198420210157224</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03010926193625352</v>
+        <v>0.03043713236378665</v>
       </c>
       <c r="E23">
-        <v>0.7282275935065243</v>
+        <v>0.5034192163059927</v>
       </c>
       <c r="F23">
-        <v>3.992078008884192</v>
+        <v>3.977421759882503</v>
       </c>
       <c r="G23">
-        <v>4.41397542112017</v>
+        <v>4.933640429323418</v>
       </c>
       <c r="H23">
-        <v>0.1004605700423982</v>
+        <v>0.08034965783521475</v>
       </c>
       <c r="I23">
-        <v>0.003497168415624863</v>
+        <v>0.002926081047403883</v>
       </c>
       <c r="J23">
-        <v>2.105518412634439</v>
+        <v>1.698472498671237</v>
       </c>
       <c r="K23">
-        <v>3.576442759160983</v>
+        <v>1.64551242598634</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6524835137167457</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5841788421727898</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>9.212522954859196</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>7.373971851831413</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.632240105224525</v>
+        <v>1.879178888207804</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02440479765636638</v>
+        <v>0.03043053132820717</v>
       </c>
       <c r="E24">
-        <v>0.6397394263452512</v>
+        <v>0.4515428531673109</v>
       </c>
       <c r="F24">
-        <v>3.335298035130791</v>
+        <v>3.487599885431649</v>
       </c>
       <c r="G24">
-        <v>3.679173477726778</v>
+        <v>4.010136865688253</v>
       </c>
       <c r="H24">
-        <v>0.07190594524494465</v>
+        <v>0.05834055511082603</v>
       </c>
       <c r="I24">
-        <v>0.00523914734849118</v>
+        <v>0.003889951848299766</v>
       </c>
       <c r="J24">
-        <v>1.766828068451844</v>
+        <v>1.822894531993143</v>
       </c>
       <c r="K24">
-        <v>3.105568601618131</v>
+        <v>1.410974648877826</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5368328918113932</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.5219151357981175</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>7.884178343803995</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>6.370512302938096</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.340694450951673</v>
+        <v>1.550507852701088</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01886021826174655</v>
+        <v>0.02491655478421251</v>
       </c>
       <c r="E25">
-        <v>0.5465478998550353</v>
+        <v>0.386422242523583</v>
       </c>
       <c r="F25">
-        <v>2.667200573889914</v>
+        <v>2.825041330539932</v>
       </c>
       <c r="G25">
-        <v>2.931806973399262</v>
+        <v>3.201987336754456</v>
       </c>
       <c r="H25">
-        <v>0.04636523746694943</v>
+        <v>0.03748627778359248</v>
       </c>
       <c r="I25">
-        <v>0.007846932562974196</v>
+        <v>0.005421284880309685</v>
       </c>
       <c r="J25">
-        <v>1.423778366511414</v>
+        <v>1.533586463498693</v>
       </c>
       <c r="K25">
-        <v>2.609242483117839</v>
+        <v>1.185388074066452</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4256076743270043</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4636625116084687</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.470209560993482</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>5.206642674513262</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
